--- a/xmlreport.xlsx
+++ b/xmlreport.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,17 +390,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D39" sqref="A1:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2038798669_202104151047_96c03000-754a-4089-baad-2b3b5eb9e874_Anon--S11.txt</t>
+        </is>
       </c>
       <c r="B1" t="n">
         <v>1</v>
@@ -408,21 +410,31 @@
       <c r="C1" t="n">
         <v>1</v>
       </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2038798669_202106231758_99861b54-81f7-4b7b-8b5c-8300f28f2fb5_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.82</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.93</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2038798669_202106231758_99861b54-81f7-4b7b-8b5c-8300f28f2fb5_Anon--S26.txt</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -430,32 +442,47 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2038798669_202106231802_e573dba8-6276-4999-8533-965d901d34c7_Anon--S0.txt</t>
+        </is>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.92</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.96</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2038798669_202106231802_e573dba8-6276-4999-8533-965d901d34c7_Anon--S100.txt</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.98</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.96</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2038798669_202106301032_7f854162-68ce-43e4-a778-cdfd8c3c5f57_Anon--S0.txt</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -463,368 +490,684 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.96</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2038798894_202105070914_8fccb6b5-cb43-45de-bd2b-d6dca496bf77_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2038798894_202105070914_8fccb6b5-cb43-45de-bd2b-d6dca496bf77_Anon--S3.txt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2038798894_202105211332_5d24b0f9-249f-4ac4-8075-f08e444b547e_Anon--S13.txt</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0.92</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2038798894_202105271244_9e0e793e-9610-4cef-bcb9-72d57df98900_Anon--S10.txt</t>
+        </is>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2038989515_202105041428_6d9912d9-73ef-48c7-a054-db946ae3c409_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2038989515_202105071000_304c9623-097b-498d-b551-a97b22a1b6d5_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2038989515_202105101043_afa9461d-d491-4450-93e7-83321540c042_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2038989515_202105121738_c38b1933-4b13-43fb-b191-5adc31bf5998_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2038989515_202106211323_2fdd580b-8645-4c0a-8c86-7809a2241222_Anon--S19.txt</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2038989515_202106281227_6ad54cfe-5139-40cf-9340-e50aab6877f1_Anon--S25.txt</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.75</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D16" t="n">
         <v>0.86</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2038989515_202106301045_e181ef3f-8b69-4114-96f9-adc71ce5ede3_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2038989515_202106301045_e181ef3f-8b69-4114-96f9-adc71ce5ede3_Anon--S9.txt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2039045041_202106101625_46cc3e9b-cafe-4b7a-a5d6-a7af5a6464d3_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2039045041_202106101625_46cc3e9b-cafe-4b7a-a5d6-a7af5a6464d3_Anon--S1.txt</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2039045041_202106171022_e3765b4e-6ef6-41c0-9cd7-9952192ce27b_Anon--S1.txt</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2039045041_202106190955_7fafa306-c62e-45e3-b2bc-de9bc17c3481_Anon--S100.txt</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>0.95</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9</v>
       </c>
       <c r="C22" t="n">
         <v>0.95</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2039045041_202106221236_17e2d03e-25e6-42e3-bcbe-d5b298d8c12f_Anon--S10.txt</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2039045041_202106301332_eb76534d-95dd-4c81-8982-75faed10a599_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2039045041_202107051320_63694915-4e5c-44cd-b632-3355d22f0270_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2039045041_202107051320_63694915-4e5c-44cd-b632-3355d22f0270_Anon--S10.txt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2039234455_202106141345_34e39f2d-6baf-4597-8a0d-99e9aea9b3a7_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2039234455_202106181252_3670cd79-8136-43cc-b47b-dbe72683c237_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2039234455_202106181252_3670cd79-8136-43cc-b47b-dbe72683c237_Anon--S20.txt</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2039234455_202106181332_9fac6629-f287-40a0-8fef-6f10582d2cdb_Anon--S2.txt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2039234455_202106231534_d7966d93-30fa-4a86-a9e1-7faeddcdd45b_Anon--S101.txt</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2039367019_202106161150_493600a6-5243-4d5a-b27f-81a64437f246_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2039367019_202106241112_c0aff848-e134-4da3-853f-0756cd35fab3_Anon--S10.txt</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2039367019_202106291035_3cd3d86f-b37e-4a34-9af6-b1b373e2cda5_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2039367019_202106291035_3cd3d86f-b37e-4a34-9af6-b1b373e2cda5_Anon--S16.txt</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2039367755_202106151755_7294748d-46d3-4144-bb18-730514f9f3fa_Anon--S10.txt</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2039367755_202106291319_f18f4e4c-45b5-43f5-af49-3f6c793b73bb_Anon--S17.txt</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
         <v>0.88</v>
       </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2039367755_202106300947_c3574cfc-c994-4566-92b6-2c9da5776d07_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>0.85</v>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.92</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2039367755_202106301039_5ce7d519-5f98-4e40-97a2-41fc78ea955a_Anon--S12.txt</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2039367755_202106301051_e779f163-6de8-48bd-b449-c5cff0cef264_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2039367755_202106301051_e779f163-6de8-48bd-b449-c5cff0cef264_Anon--S10.txt</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>0.33</v>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2039448757_202106301245_c4da7068-9f19-4650-92e5-75b225283714_Anon--S0.txt</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
         <v>0.96</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C42" t="n">
         <v>0.96</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D42" t="n">
         <v>0.96</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2039448757_202106301245_c4da7068-9f19-4650-92e5-75b225283714_Anon--S105.txt</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
         <v>0.95</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C43" t="n">
         <v>0.97</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D43" t="n">
         <v>0.96</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.9</v>
       </c>
     </row>
   </sheetData>
